--- a/tabellen/ontwikkeling/versie-5.02/objectentabellen-verkort/5.02-Objectentabel-VW-VerkeersmaatregelenWeg.xlsx
+++ b/tabellen/ontwikkeling/versie-5.02/objectentabellen-verkort/5.02-Objectentabel-VW-VerkeersmaatregelenWeg.xlsx
@@ -5,25 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\versie-5.0-LinkedData\objectentabellen-verkort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\versie-5.02\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9EBACF72-E658-4F40-B975-AB8EDD1E8191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A0B66FD-E2B4-4104-A994-2D2EC616928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="5.01-Objectentabel-VW-Verkeersm" sheetId="1" r:id="rId1"/>
+    <sheet name="5.02-Objectentabel-VW-Verkeersm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5.01-Objectentabel-VW-Verkeersm'!$A$1:$AJ$97</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="168">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -169,15 +166,237 @@
     <t>VERKEERSTEKEN_BEBAKENING</t>
   </si>
   <si>
+    <t>MARKERING_SYMBOOL</t>
+  </si>
+  <si>
+    <t>MARKERING_PIJL</t>
+  </si>
+  <si>
+    <t>BEWEGWIJZERING_DRAAGCONSTRUCTIE</t>
+  </si>
+  <si>
+    <t>AFZETTING_POLLER</t>
+  </si>
+  <si>
+    <t>AFZETTING_AFSLUITPAAL</t>
+  </si>
+  <si>
+    <t>VERKEERSSPIEGEL_DRAAGCONSTRUCTIE</t>
+  </si>
+  <si>
+    <t>MARKERING_DWARS_DRIEHOEK</t>
+  </si>
+  <si>
+    <t>VW-HAAIETAND50_L</t>
+  </si>
+  <si>
+    <t>V-VW-HAAIETAND50_L</t>
+  </si>
+  <si>
+    <t>AFZETTING_POLLER_VAST</t>
+  </si>
+  <si>
+    <t>AFZETTING_POLLER_SCANPAAL</t>
+  </si>
+  <si>
+    <t>AFZETTING_POLLER_BEWEEGBAAR</t>
+  </si>
+  <si>
+    <t>MARKERING_DWARS_OVERSTEEK_KANALISATIESTREEP50</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>VW-5050_STREEP</t>
+  </si>
+  <si>
+    <t>V-VW-5050_STREEP</t>
+  </si>
+  <si>
+    <t>MARKERING_DWARS_OVERSTEEK_BLOKSTREEP</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>VW-BLOK50</t>
+  </si>
+  <si>
+    <t>V-VW-BLOK50</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_39</t>
+  </si>
+  <si>
+    <t>VW-39_STREEP</t>
+  </si>
+  <si>
+    <t>V-VW-39_STREEP</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_050050</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_13</t>
+  </si>
+  <si>
+    <t>VW-13_STREEP</t>
+  </si>
+  <si>
+    <t>V-VW-13_STREEP</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_11</t>
+  </si>
+  <si>
+    <t>VW-11_STREEP</t>
+  </si>
+  <si>
+    <t>V-VW-11_STREEP</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_27030</t>
+  </si>
+  <si>
+    <t>VW-27030_STREEP</t>
+  </si>
+  <si>
+    <t>V-VW-27030_STREEP</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_33</t>
+  </si>
+  <si>
+    <t>VW-33_STREEP</t>
+  </si>
+  <si>
+    <t>V-VW-33_STREEP</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_31</t>
+  </si>
+  <si>
+    <t>VW-31_STREEP</t>
+  </si>
+  <si>
+    <t>V-VW-31_STREEP</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_91</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>VW-91_STREEP</t>
+  </si>
+  <si>
+    <t>V-VW-91_STREEP</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_93</t>
+  </si>
+  <si>
+    <t>VW-93_STREEP</t>
+  </si>
+  <si>
+    <t>V-VW-93_STREEP</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_30270</t>
+  </si>
+  <si>
+    <t>VW-30270_STREEP</t>
+  </si>
+  <si>
+    <t>V-VW-30270_STREEP</t>
+  </si>
+  <si>
+    <t>MARKERING_DWARS_OVERSTEEK_KANALISATIESTREEP50_010</t>
+  </si>
+  <si>
+    <t>MARKERING_DWARS_OVERSTEEK_KANALISATIESTREEP50_020</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_39_030</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_39_010</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_39_015</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_050050_010</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_13_030</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_13_020</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_13_010</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_13_015</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_13_045</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_11_010</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_11_015</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_27030_010</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_27030_015</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_33_015</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_31_010</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_91_010</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_91_030</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_93_030</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_93_010</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_30270_010</t>
+  </si>
+  <si>
+    <t>MARKERING_LANGS_STREEP_30270_015</t>
+  </si>
+  <si>
+    <t>BEWEGWIJZERING</t>
+  </si>
+  <si>
+    <t>HECTOMETRERING</t>
+  </si>
+  <si>
+    <t>VERKEERSSPIEGEL</t>
+  </si>
+  <si>
     <t>MARKERING_PUNTSTUK</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>MARKERING_SYMBOOL</t>
-  </si>
-  <si>
     <t>MARKERING_DWARS</t>
   </si>
   <si>
@@ -193,9 +412,6 @@
     <t>MARKERING_AFGEKRUISTVLAK</t>
   </si>
   <si>
-    <t>MARKERING_PIJL</t>
-  </si>
-  <si>
     <t>BEWEGWIJZERING_FIETS</t>
   </si>
   <si>
@@ -205,9 +421,6 @@
     <t>BEWEGWIJZERING_GEBIEDSONTSLUITINGWEG</t>
   </si>
   <si>
-    <t>BEWEGWIJZERING_DRAAGCONSTRUCTIE</t>
-  </si>
-  <si>
     <t>BEWEGWIJZERING_VOETGANGER</t>
   </si>
   <si>
@@ -220,24 +433,6 @@
     <t>BEWEGWIJZERING_NIETGEINTEGREERD</t>
   </si>
   <si>
-    <t>AFZETTING_POLLER</t>
-  </si>
-  <si>
-    <t>AFZETTING_AFSLUITPAAL</t>
-  </si>
-  <si>
-    <t>VERKEERSSPIEGEL_DRAAGCONSTRUCTIE</t>
-  </si>
-  <si>
-    <t>MARKERING_DWARS_DRIEHOEK</t>
-  </si>
-  <si>
-    <t>VW-HAAIETAND50_L</t>
-  </si>
-  <si>
-    <t>V-VW-HAAIETAND50_L</t>
-  </si>
-  <si>
     <t>MARKERING_DWARS_STOPSTREEP</t>
   </si>
   <si>
@@ -262,204 +457,33 @@
     <t>BEWEGWIJZERING_STROOMWEG_NATIONAAL</t>
   </si>
   <si>
-    <t>AFZETTING_POLLER_VAST</t>
-  </si>
-  <si>
     <t>AFZETTING_POLLER_PUT</t>
   </si>
   <si>
-    <t>AFZETTING_POLLER_SCANPAAL</t>
-  </si>
-  <si>
-    <t>AFZETTING_POLLER_BEWEEGBAAR</t>
-  </si>
-  <si>
     <t>MARKERING_DWARS_STOPSTREEP_020</t>
   </si>
   <si>
     <t>MARKERING_DWARS_STOPSTREEP_030</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
     <t>MARKERING_DWARS_STOPSTREEP_015</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
     <t>MARKERING_DWARS_STOPSTREEP_050</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>MARKERING_DWARS_OVERSTEEK_KANALISATIESTREEP50</t>
-  </si>
-  <si>
-    <t>VW-5050_STREEP</t>
-  </si>
-  <si>
-    <t>V-VW-5050_STREEP</t>
-  </si>
-  <si>
-    <t>MARKERING_DWARS_OVERSTEEK_BLOKSTREEP</t>
-  </si>
-  <si>
-    <t>VW-BLOK50</t>
-  </si>
-  <si>
-    <t>V-VW-BLOK50</t>
-  </si>
-  <si>
     <t>MARKERING_DWARS_OVERSTEEK_VOETGANGERS</t>
   </si>
   <si>
-    <t>MARKERING_LANGS_STREEP_39</t>
-  </si>
-  <si>
-    <t>VW-39_STREEP</t>
-  </si>
-  <si>
-    <t>V-VW-39_STREEP</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_050050</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_13</t>
-  </si>
-  <si>
-    <t>VW-13_STREEP</t>
-  </si>
-  <si>
-    <t>V-VW-13_STREEP</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_11</t>
-  </si>
-  <si>
-    <t>VW-11_STREEP</t>
-  </si>
-  <si>
-    <t>V-VW-11_STREEP</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_27030</t>
-  </si>
-  <si>
-    <t>VW-27030_STREEP</t>
-  </si>
-  <si>
-    <t>V-VW-27030_STREEP</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_33</t>
-  </si>
-  <si>
-    <t>VW-33_STREEP</t>
-  </si>
-  <si>
-    <t>V-VW-33_STREEP</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_31</t>
-  </si>
-  <si>
-    <t>VW-31_STREEP</t>
-  </si>
-  <si>
-    <t>V-VW-31_STREEP</t>
-  </si>
-  <si>
     <t>MARKERING_LANGS_STREEP_DOORGETROKKEN</t>
   </si>
   <si>
-    <t>MARKERING_LANGS_STREEP_91</t>
-  </si>
-  <si>
-    <t>VW-91_STREEP</t>
-  </si>
-  <si>
-    <t>V-VW-91_STREEP</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_93</t>
-  </si>
-  <si>
-    <t>VW-93_STREEP</t>
-  </si>
-  <si>
-    <t>V-VW-93_STREEP</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_30270</t>
-  </si>
-  <si>
-    <t>VW-30270_STREEP</t>
-  </si>
-  <si>
-    <t>V-VW-30270_STREEP</t>
-  </si>
-  <si>
     <t>BEWEGWIJZERING_DRAAGCONSTRUCTIE_PORTAAL_POER</t>
   </si>
   <si>
     <t>BEWEGWIJZERING_DRAAGCONSTRUCTIE_UITHOUDER_POER</t>
   </si>
   <si>
-    <t>MARKERING_DWARS_OVERSTEEK_KANALISATIESTREEP50_010</t>
-  </si>
-  <si>
-    <t>MARKERING_DWARS_OVERSTEEK_KANALISATIESTREEP50_020</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_39_030</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_39_010</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_39_015</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_050050_010</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_13_030</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_13_020</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_13_010</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_13_015</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_13_045</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_11_010</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_11_015</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_27030_010</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_27030_015</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_33_015</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_31_010</t>
-  </si>
-  <si>
     <t>MARKERING_LANGS_STREEP_DOORGETROKKEN_045</t>
   </si>
   <si>
@@ -475,24 +499,6 @@
     <t>MARKERING_LANGS_STREEP_DOORGETROKKEN_020</t>
   </si>
   <si>
-    <t>MARKERING_LANGS_STREEP_91_010</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_91_030</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_93_030</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_93_010</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_30270_010</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_30270_015</t>
-  </si>
-  <si>
     <t>VERKEERSTEKEN</t>
   </si>
   <si>
@@ -502,12 +508,6 @@
     <t>BLINDENGELEIDEROUTE</t>
   </si>
   <si>
-    <t>BEWEGWIJZERING</t>
-  </si>
-  <si>
-    <t>HECTOMETRERING</t>
-  </si>
-  <si>
     <t>RIJRICHTING</t>
   </si>
   <si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t>AFZETTING</t>
-  </si>
-  <si>
-    <t>VERKEERSSPIEGEL</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1918,7 +1915,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -2017,7 +2014,7 @@
         <v>43</v>
       </c>
       <c r="AI6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
@@ -2025,10 +2022,10 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>2569</v>
@@ -2132,13 +2129,13 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>2618</v>
+        <v>2564</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>2569</v>
+        <v>2553</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -2162,7 +2159,7 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M8" t="s">
         <v>41</v>
@@ -2183,7 +2180,7 @@
         <v>7</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T8" t="s">
         <v>41</v>
@@ -2204,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="Z8">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA8" t="s">
         <v>41</v>
@@ -2225,13 +2222,13 @@
         <v>7</v>
       </c>
       <c r="AG8">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH8" t="s">
         <v>43</v>
       </c>
       <c r="AI8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
@@ -2239,13 +2236,13 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>2577</v>
+        <v>3344</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>2569</v>
+        <v>2657</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -2269,7 +2266,7 @@
         <v>7</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M9" t="s">
         <v>41</v>
@@ -2290,7 +2287,7 @@
         <v>7</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T9" t="s">
         <v>41</v>
@@ -2311,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA9" t="s">
         <v>41</v>
@@ -2332,13 +2329,13 @@
         <v>7</v>
       </c>
       <c r="AG9">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH9" t="s">
         <v>43</v>
       </c>
       <c r="AI9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
@@ -2346,13 +2343,13 @@
         <v>36</v>
       </c>
       <c r="B10">
-        <v>2578</v>
+        <v>3473</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>2569</v>
+        <v>2657</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -2376,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M10" t="s">
         <v>41</v>
@@ -2397,7 +2394,7 @@
         <v>7</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T10" t="s">
         <v>41</v>
@@ -2418,7 +2415,7 @@
         <v>7</v>
       </c>
       <c r="Z10">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA10" t="s">
         <v>41</v>
@@ -2439,13 +2436,13 @@
         <v>7</v>
       </c>
       <c r="AG10">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH10" t="s">
         <v>43</v>
       </c>
       <c r="AI10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
@@ -2453,13 +2450,13 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>2571</v>
+        <v>3351</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>2569</v>
+        <v>3350</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -2483,7 +2480,7 @@
         <v>7</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M11" t="s">
         <v>41</v>
@@ -2504,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="S11">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T11" t="s">
         <v>41</v>
@@ -2525,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="Z11">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA11" t="s">
         <v>41</v>
@@ -2546,13 +2543,13 @@
         <v>7</v>
       </c>
       <c r="AG11">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH11" t="s">
         <v>43</v>
       </c>
       <c r="AI11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
@@ -2560,13 +2557,13 @@
         <v>36</v>
       </c>
       <c r="B12">
-        <v>2575</v>
+        <v>2619</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>2569</v>
+        <v>2618</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -2593,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="M12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N12" t="s">
         <v>42</v>
@@ -2614,7 +2611,7 @@
         <v>7</v>
       </c>
       <c r="T12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="U12" t="s">
         <v>42</v>
@@ -2635,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="AA12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="s">
         <v>42</v>
@@ -2656,10 +2653,10 @@
         <v>7</v>
       </c>
       <c r="AH12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AI12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
@@ -2667,13 +2664,13 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>2570</v>
+        <v>3348</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>2569</v>
+        <v>3344</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -2697,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M13" t="s">
         <v>41</v>
@@ -2718,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T13" t="s">
         <v>41</v>
@@ -2739,7 +2736,7 @@
         <v>7</v>
       </c>
       <c r="Z13">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA13" t="s">
         <v>41</v>
@@ -2760,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="AG13">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH13" t="s">
         <v>43</v>
@@ -2774,13 +2771,13 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>2559</v>
+        <v>3347</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>2553</v>
+        <v>3344</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -2873,7 +2870,7 @@
         <v>43</v>
       </c>
       <c r="AI14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.35">
@@ -2881,13 +2878,13 @@
         <v>36</v>
       </c>
       <c r="B15">
-        <v>2554</v>
+        <v>3345</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>2553</v>
+        <v>3344</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -2980,7 +2977,7 @@
         <v>43</v>
       </c>
       <c r="AI15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.35">
@@ -2988,13 +2985,13 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>2555</v>
+        <v>2631</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>2553</v>
+        <v>2629</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -3003,7 +3000,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -3018,13 +3015,13 @@
         <v>7</v>
       </c>
       <c r="L16">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O16">
         <v>7</v>
@@ -3039,13 +3036,13 @@
         <v>7</v>
       </c>
       <c r="S16">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="U16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V16">
         <v>7</v>
@@ -3060,13 +3057,13 @@
         <v>7</v>
       </c>
       <c r="Z16">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AB16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC16">
         <v>7</v>
@@ -3081,13 +3078,13 @@
         <v>7</v>
       </c>
       <c r="AG16">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AI16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.35">
@@ -3095,13 +3092,13 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>2564</v>
+        <v>2635</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>2553</v>
+        <v>2629</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
@@ -3110,7 +3107,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -3125,13 +3122,13 @@
         <v>7</v>
       </c>
       <c r="L17">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="N17" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="O17">
         <v>7</v>
@@ -3146,10 +3143,10 @@
         <v>7</v>
       </c>
       <c r="S17">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="U17" t="s">
         <v>42</v>
@@ -3167,13 +3164,13 @@
         <v>7</v>
       </c>
       <c r="Z17">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="AB17" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AC17">
         <v>7</v>
@@ -3188,10 +3185,10 @@
         <v>7</v>
       </c>
       <c r="AG17">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AI17" t="s">
         <v>44</v>
@@ -3202,13 +3199,13 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>2561</v>
+        <v>2601</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>2553</v>
+        <v>2579</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
@@ -3217,7 +3214,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -3232,13 +3229,13 @@
         <v>7</v>
       </c>
       <c r="L18">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N18" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O18">
         <v>7</v>
@@ -3253,13 +3250,13 @@
         <v>7</v>
       </c>
       <c r="S18">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T18" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="U18" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V18">
         <v>7</v>
@@ -3274,13 +3271,13 @@
         <v>7</v>
       </c>
       <c r="Z18">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AB18" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC18">
         <v>7</v>
@@ -3295,13 +3292,13 @@
         <v>7</v>
       </c>
       <c r="AG18">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH18" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="AI18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.35">
@@ -3309,13 +3306,13 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>2556</v>
+        <v>3551</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>2553</v>
+        <v>2579</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -3324,7 +3321,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -3339,13 +3336,13 @@
         <v>7</v>
       </c>
       <c r="L19">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O19">
         <v>7</v>
@@ -3360,13 +3357,13 @@
         <v>7</v>
       </c>
       <c r="S19">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T19" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="U19" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V19">
         <v>7</v>
@@ -3381,13 +3378,13 @@
         <v>7</v>
       </c>
       <c r="Z19">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA19" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AB19" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC19">
         <v>7</v>
@@ -3402,13 +3399,13 @@
         <v>7</v>
       </c>
       <c r="AG19">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AI19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.35">
@@ -3416,13 +3413,13 @@
         <v>36</v>
       </c>
       <c r="B20">
-        <v>2560</v>
+        <v>2592</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D20">
-        <v>2553</v>
+        <v>2579</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -3431,7 +3428,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -3446,13 +3443,13 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="N20" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O20">
         <v>7</v>
@@ -3467,13 +3464,13 @@
         <v>7</v>
       </c>
       <c r="S20">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T20" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V20">
         <v>7</v>
@@ -3488,13 +3485,13 @@
         <v>7</v>
       </c>
       <c r="Z20">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC20">
         <v>7</v>
@@ -3509,13 +3506,13 @@
         <v>7</v>
       </c>
       <c r="AG20">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.35">
@@ -3523,13 +3520,13 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>2563</v>
+        <v>2589</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D21">
-        <v>2553</v>
+        <v>2579</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
@@ -3538,7 +3535,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H21">
         <v>7</v>
@@ -3553,13 +3550,13 @@
         <v>7</v>
       </c>
       <c r="L21">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N21" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O21">
         <v>7</v>
@@ -3574,13 +3571,13 @@
         <v>7</v>
       </c>
       <c r="S21">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T21" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V21">
         <v>7</v>
@@ -3595,13 +3592,13 @@
         <v>7</v>
       </c>
       <c r="Z21">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA21" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC21">
         <v>7</v>
@@ -3616,13 +3613,13 @@
         <v>7</v>
       </c>
       <c r="AG21">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.35">
@@ -3630,13 +3627,13 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>3344</v>
+        <v>2610</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D22">
-        <v>2657</v>
+        <v>2579</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
@@ -3645,7 +3642,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H22">
         <v>7</v>
@@ -3660,13 +3657,13 @@
         <v>7</v>
       </c>
       <c r="L22">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O22">
         <v>7</v>
@@ -3681,13 +3678,13 @@
         <v>7</v>
       </c>
       <c r="S22">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T22" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V22">
         <v>7</v>
@@ -3702,13 +3699,13 @@
         <v>7</v>
       </c>
       <c r="Z22">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA22" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC22">
         <v>7</v>
@@ -3723,10 +3720,10 @@
         <v>7</v>
       </c>
       <c r="AG22">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH22" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s">
         <v>44</v>
@@ -3737,13 +3734,13 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>3473</v>
+        <v>2599</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D23">
-        <v>2657</v>
+        <v>2579</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
@@ -3752,7 +3749,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H23">
         <v>7</v>
@@ -3767,13 +3764,13 @@
         <v>7</v>
       </c>
       <c r="L23">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M23" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="N23" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O23">
         <v>7</v>
@@ -3788,13 +3785,13 @@
         <v>7</v>
       </c>
       <c r="S23">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T23" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U23" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V23">
         <v>7</v>
@@ -3809,13 +3806,13 @@
         <v>7</v>
       </c>
       <c r="Z23">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB23" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC23">
         <v>7</v>
@@ -3830,10 +3827,10 @@
         <v>7</v>
       </c>
       <c r="AG23">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH23" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s">
         <v>44</v>
@@ -3844,13 +3841,13 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>3351</v>
+        <v>2597</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D24">
-        <v>3350</v>
+        <v>2579</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
@@ -3859,7 +3856,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H24">
         <v>7</v>
@@ -3874,13 +3871,13 @@
         <v>7</v>
       </c>
       <c r="L24">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="N24" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O24">
         <v>7</v>
@@ -3895,13 +3892,13 @@
         <v>7</v>
       </c>
       <c r="S24">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T24" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="U24" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V24">
         <v>7</v>
@@ -3916,13 +3913,13 @@
         <v>7</v>
       </c>
       <c r="Z24">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AB24" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC24">
         <v>7</v>
@@ -3937,10 +3934,10 @@
         <v>7</v>
       </c>
       <c r="AG24">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s">
         <v>44</v>
@@ -3951,13 +3948,13 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>2619</v>
+        <v>2605</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D25">
-        <v>2618</v>
+        <v>2579</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -3966,7 +3963,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H25">
         <v>7</v>
@@ -3984,10 +3981,10 @@
         <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="O25">
         <v>7</v>
@@ -4005,10 +4002,10 @@
         <v>7</v>
       </c>
       <c r="T25" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="U25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="V25">
         <v>7</v>
@@ -4026,10 +4023,10 @@
         <v>7</v>
       </c>
       <c r="AA25" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AB25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AC25">
         <v>7</v>
@@ -4047,7 +4044,7 @@
         <v>7</v>
       </c>
       <c r="AH25" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s">
         <v>44</v>
@@ -4058,13 +4055,13 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2623</v>
+        <v>2607</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D26">
-        <v>2618</v>
+        <v>2579</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -4073,7 +4070,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H26">
         <v>7</v>
@@ -4091,10 +4088,10 @@
         <v>7</v>
       </c>
       <c r="M26" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="N26" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O26">
         <v>7</v>
@@ -4112,10 +4109,10 @@
         <v>7</v>
       </c>
       <c r="T26" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="U26" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V26">
         <v>7</v>
@@ -4133,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="AA26" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="AB26" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC26">
         <v>7</v>
@@ -4154,10 +4151,10 @@
         <v>7</v>
       </c>
       <c r="AH26" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.35">
@@ -4165,13 +4162,13 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>2629</v>
+        <v>2612</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D27">
-        <v>2618</v>
+        <v>2579</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
@@ -4180,7 +4177,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -4198,10 +4195,10 @@
         <v>7</v>
       </c>
       <c r="M27" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="N27" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O27">
         <v>7</v>
@@ -4219,10 +4216,10 @@
         <v>7</v>
       </c>
       <c r="T27" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="U27" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V27">
         <v>7</v>
@@ -4240,10 +4237,10 @@
         <v>7</v>
       </c>
       <c r="AA27" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AB27" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC27">
         <v>7</v>
@@ -4261,10 +4258,10 @@
         <v>7</v>
       </c>
       <c r="AH27" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AI27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.35">
@@ -4272,13 +4269,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>3554</v>
+        <v>2632</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D28">
-        <v>2618</v>
+        <v>2631</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -4287,7 +4284,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H28">
         <v>7</v>
@@ -4305,10 +4302,10 @@
         <v>7</v>
       </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="N28" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O28">
         <v>7</v>
@@ -4326,10 +4323,10 @@
         <v>7</v>
       </c>
       <c r="T28" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="U28" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V28">
         <v>7</v>
@@ -4347,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="AA28" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AB28" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC28">
         <v>7</v>
@@ -4368,10 +4365,10 @@
         <v>7</v>
       </c>
       <c r="AH28" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AI28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.35">
@@ -4379,13 +4376,13 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>2579</v>
+        <v>3550</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D29">
-        <v>2578</v>
+        <v>2631</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -4412,10 +4409,10 @@
         <v>7</v>
       </c>
       <c r="M29" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="N29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O29">
         <v>7</v>
@@ -4433,10 +4430,10 @@
         <v>7</v>
       </c>
       <c r="T29" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="U29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V29">
         <v>7</v>
@@ -4454,10 +4451,10 @@
         <v>7</v>
       </c>
       <c r="AA29" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AB29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC29">
         <v>7</v>
@@ -4475,10 +4472,10 @@
         <v>7</v>
       </c>
       <c r="AH29" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AI29" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.35">
@@ -4486,13 +4483,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>2565</v>
+        <v>2604</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D30">
-        <v>2564</v>
+        <v>2601</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -4501,7 +4498,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H30">
         <v>7</v>
@@ -4516,13 +4513,13 @@
         <v>7</v>
       </c>
       <c r="L30">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M30" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N30" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="O30">
         <v>7</v>
@@ -4537,13 +4534,13 @@
         <v>7</v>
       </c>
       <c r="S30">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="U30" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="V30">
         <v>7</v>
@@ -4558,13 +4555,13 @@
         <v>7</v>
       </c>
       <c r="Z30">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA30" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AB30" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AC30">
         <v>7</v>
@@ -4579,13 +4576,13 @@
         <v>7</v>
       </c>
       <c r="AG30">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="AI30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.35">
@@ -4593,13 +4590,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>2567</v>
+        <v>2602</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D31">
-        <v>2564</v>
+        <v>2601</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -4608,7 +4605,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H31">
         <v>7</v>
@@ -4623,13 +4620,13 @@
         <v>7</v>
       </c>
       <c r="L31">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M31" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N31" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O31">
         <v>7</v>
@@ -4644,13 +4641,13 @@
         <v>7</v>
       </c>
       <c r="S31">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T31" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="U31" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V31">
         <v>7</v>
@@ -4665,13 +4662,13 @@
         <v>7</v>
       </c>
       <c r="Z31">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA31" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AB31" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC31">
         <v>7</v>
@@ -4686,13 +4683,13 @@
         <v>7</v>
       </c>
       <c r="AG31">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH31" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="AI31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.35">
@@ -4700,13 +4697,13 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>2558</v>
+        <v>2603</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D32">
-        <v>2556</v>
+        <v>2601</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
@@ -4715,7 +4712,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H32">
         <v>7</v>
@@ -4730,13 +4727,13 @@
         <v>7</v>
       </c>
       <c r="L32">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M32" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N32" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O32">
         <v>7</v>
@@ -4751,13 +4748,13 @@
         <v>7</v>
       </c>
       <c r="S32">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T32" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="U32" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V32">
         <v>7</v>
@@ -4772,13 +4769,13 @@
         <v>7</v>
       </c>
       <c r="Z32">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA32" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AB32" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC32">
         <v>7</v>
@@ -4793,13 +4790,13 @@
         <v>7</v>
       </c>
       <c r="AG32">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH32" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="AI32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.35">
@@ -4807,13 +4804,13 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>2557</v>
+        <v>3552</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D33">
-        <v>2556</v>
+        <v>3551</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -4822,7 +4819,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H33">
         <v>7</v>
@@ -4837,13 +4834,13 @@
         <v>7</v>
       </c>
       <c r="L33">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M33" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="N33" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O33">
         <v>7</v>
@@ -4858,13 +4855,13 @@
         <v>7</v>
       </c>
       <c r="S33">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T33" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="U33" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V33">
         <v>7</v>
@@ -4879,13 +4876,13 @@
         <v>7</v>
       </c>
       <c r="Z33">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA33" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AB33" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC33">
         <v>7</v>
@@ -4900,13 +4897,13 @@
         <v>7</v>
       </c>
       <c r="AG33">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH33" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AI33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.35">
@@ -4914,13 +4911,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>3348</v>
+        <v>2595</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D34">
-        <v>3344</v>
+        <v>2592</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
@@ -4929,7 +4926,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H34">
         <v>7</v>
@@ -4944,13 +4941,13 @@
         <v>7</v>
       </c>
       <c r="L34">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="N34" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="O34">
         <v>7</v>
@@ -4965,13 +4962,13 @@
         <v>7</v>
       </c>
       <c r="S34">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T34" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="V34">
         <v>7</v>
@@ -4986,13 +4983,13 @@
         <v>7</v>
       </c>
       <c r="Z34">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA34" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AC34">
         <v>7</v>
@@ -5007,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="AG34">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH34" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s">
         <v>44</v>
@@ -5021,13 +5018,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>3346</v>
+        <v>2594</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D35">
-        <v>3344</v>
+        <v>2592</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
@@ -5051,13 +5048,13 @@
         <v>7</v>
       </c>
       <c r="L35">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M35" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="N35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O35">
         <v>7</v>
@@ -5072,13 +5069,13 @@
         <v>7</v>
       </c>
       <c r="S35">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T35" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V35">
         <v>7</v>
@@ -5093,13 +5090,13 @@
         <v>7</v>
       </c>
       <c r="Z35">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA35" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC35">
         <v>7</v>
@@ -5114,13 +5111,13 @@
         <v>7</v>
       </c>
       <c r="AG35">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH35" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.35">
@@ -5128,13 +5125,13 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>3347</v>
+        <v>2593</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D36">
-        <v>3344</v>
+        <v>2592</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -5143,7 +5140,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H36">
         <v>7</v>
@@ -5158,13 +5155,13 @@
         <v>7</v>
       </c>
       <c r="L36">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M36" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="N36" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O36">
         <v>7</v>
@@ -5179,13 +5176,13 @@
         <v>7</v>
       </c>
       <c r="S36">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T36" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V36">
         <v>7</v>
@@ -5200,13 +5197,13 @@
         <v>7</v>
       </c>
       <c r="Z36">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA36" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC36">
         <v>7</v>
@@ -5221,10 +5218,10 @@
         <v>7</v>
       </c>
       <c r="AG36">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH36" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s">
         <v>44</v>
@@ -5235,13 +5232,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3345</v>
+        <v>3018</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D37">
-        <v>3344</v>
+        <v>2592</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
@@ -5250,7 +5247,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H37">
         <v>7</v>
@@ -5265,13 +5262,13 @@
         <v>7</v>
       </c>
       <c r="L37">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M37" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="N37" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O37">
         <v>7</v>
@@ -5286,13 +5283,13 @@
         <v>7</v>
       </c>
       <c r="S37">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T37" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V37">
         <v>7</v>
@@ -5307,13 +5304,13 @@
         <v>7</v>
       </c>
       <c r="Z37">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA37" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC37">
         <v>7</v>
@@ -5328,10 +5325,10 @@
         <v>7</v>
       </c>
       <c r="AG37">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH37" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s">
         <v>44</v>
@@ -5342,13 +5339,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2624</v>
+        <v>2596</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D38">
-        <v>2623</v>
+        <v>2592</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5357,7 +5354,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H38">
         <v>7</v>
@@ -5375,10 +5372,10 @@
         <v>7</v>
       </c>
       <c r="M38" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="N38" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="O38">
         <v>7</v>
@@ -5396,10 +5393,10 @@
         <v>7</v>
       </c>
       <c r="T38" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="V38">
         <v>7</v>
@@ -5417,10 +5414,10 @@
         <v>7</v>
       </c>
       <c r="AA38" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AC38">
         <v>7</v>
@@ -5438,10 +5435,10 @@
         <v>7</v>
       </c>
       <c r="AH38" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.35">
@@ -5449,13 +5446,13 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>2625</v>
+        <v>2590</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D39">
-        <v>2623</v>
+        <v>2589</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
@@ -5464,7 +5461,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="H39">
         <v>7</v>
@@ -5482,10 +5479,10 @@
         <v>7</v>
       </c>
       <c r="M39" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N39" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="O39">
         <v>7</v>
@@ -5503,10 +5500,10 @@
         <v>7</v>
       </c>
       <c r="T39" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="V39">
         <v>7</v>
@@ -5524,10 +5521,10 @@
         <v>7</v>
       </c>
       <c r="AA39" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AC39">
         <v>7</v>
@@ -5545,10 +5542,10 @@
         <v>7</v>
       </c>
       <c r="AH39" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.35">
@@ -5556,13 +5553,13 @@
         <v>36</v>
       </c>
       <c r="B40">
-        <v>2627</v>
+        <v>2591</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D40">
-        <v>2623</v>
+        <v>2589</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
@@ -5571,7 +5568,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H40">
         <v>7</v>
@@ -5589,10 +5586,10 @@
         <v>7</v>
       </c>
       <c r="M40" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N40" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="O40">
         <v>7</v>
@@ -5610,10 +5607,10 @@
         <v>7</v>
       </c>
       <c r="T40" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="V40">
         <v>7</v>
@@ -5631,10 +5628,10 @@
         <v>7</v>
       </c>
       <c r="AA40" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AC40">
         <v>7</v>
@@ -5652,10 +5649,10 @@
         <v>7</v>
       </c>
       <c r="AH40" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.35">
@@ -5663,13 +5660,13 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>2626</v>
+        <v>2611</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D41">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
@@ -5678,7 +5675,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H41">
         <v>7</v>
@@ -5696,10 +5693,10 @@
         <v>7</v>
       </c>
       <c r="M41" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="N41" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="O41">
         <v>7</v>
@@ -5717,10 +5714,10 @@
         <v>7</v>
       </c>
       <c r="T41" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="V41">
         <v>7</v>
@@ -5738,10 +5735,10 @@
         <v>7</v>
       </c>
       <c r="AA41" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="AC41">
         <v>7</v>
@@ -5759,10 +5756,10 @@
         <v>7</v>
       </c>
       <c r="AH41" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.35">
@@ -5770,13 +5767,13 @@
         <v>36</v>
       </c>
       <c r="B42">
-        <v>2631</v>
+        <v>3019</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D42">
-        <v>2629</v>
+        <v>2610</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
@@ -5785,7 +5782,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H42">
         <v>7</v>
@@ -5803,10 +5800,10 @@
         <v>7</v>
       </c>
       <c r="M42" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="N42" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="O42">
         <v>7</v>
@@ -5824,10 +5821,10 @@
         <v>7</v>
       </c>
       <c r="T42" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="V42">
         <v>7</v>
@@ -5845,10 +5842,10 @@
         <v>7</v>
       </c>
       <c r="AA42" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AC42">
         <v>7</v>
@@ -5866,7 +5863,7 @@
         <v>7</v>
       </c>
       <c r="AH42" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s">
         <v>44</v>
@@ -5877,13 +5874,13 @@
         <v>36</v>
       </c>
       <c r="B43">
-        <v>2635</v>
+        <v>2600</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D43">
-        <v>2629</v>
+        <v>2599</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
@@ -5892,7 +5889,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H43">
         <v>7</v>
@@ -5910,10 +5907,10 @@
         <v>7</v>
       </c>
       <c r="M43" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="N43" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="O43">
         <v>7</v>
@@ -5931,10 +5928,10 @@
         <v>7</v>
       </c>
       <c r="T43" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="U43" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V43">
         <v>7</v>
@@ -5952,10 +5949,10 @@
         <v>7</v>
       </c>
       <c r="AA43" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AB43" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="AC43">
         <v>7</v>
@@ -5973,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="AH43" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s">
         <v>44</v>
@@ -5984,13 +5981,13 @@
         <v>36</v>
       </c>
       <c r="B44">
-        <v>2630</v>
+        <v>2598</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D44">
-        <v>2629</v>
+        <v>2597</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
@@ -5999,7 +5996,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H44">
         <v>7</v>
@@ -6017,10 +6014,10 @@
         <v>7</v>
       </c>
       <c r="M44" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="N44" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O44">
         <v>7</v>
@@ -6038,10 +6035,10 @@
         <v>7</v>
       </c>
       <c r="T44" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="U44" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V44">
         <v>7</v>
@@ -6059,10 +6056,10 @@
         <v>7</v>
       </c>
       <c r="AA44" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AB44" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC44">
         <v>7</v>
@@ -6080,10 +6077,10 @@
         <v>7</v>
       </c>
       <c r="AH44" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.35">
@@ -6091,13 +6088,13 @@
         <v>36</v>
       </c>
       <c r="B45">
-        <v>2601</v>
+        <v>3553</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D45">
-        <v>2579</v>
+        <v>2605</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
@@ -6106,7 +6103,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H45">
         <v>7</v>
@@ -6124,10 +6121,10 @@
         <v>7</v>
       </c>
       <c r="M45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N45" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="O45">
         <v>7</v>
@@ -6145,10 +6142,10 @@
         <v>7</v>
       </c>
       <c r="T45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U45" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="V45">
         <v>7</v>
@@ -6166,10 +6163,10 @@
         <v>7</v>
       </c>
       <c r="AA45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB45" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AC45">
         <v>7</v>
@@ -6187,7 +6184,7 @@
         <v>7</v>
       </c>
       <c r="AH45" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s">
         <v>44</v>
@@ -6198,13 +6195,13 @@
         <v>36</v>
       </c>
       <c r="B46">
-        <v>3551</v>
+        <v>2606</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D46">
-        <v>2579</v>
+        <v>2605</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
@@ -6213,7 +6210,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46">
         <v>7</v>
@@ -6231,10 +6228,10 @@
         <v>7</v>
       </c>
       <c r="M46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O46">
         <v>7</v>
@@ -6252,10 +6249,10 @@
         <v>7</v>
       </c>
       <c r="T46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V46">
         <v>7</v>
@@ -6273,10 +6270,10 @@
         <v>7</v>
       </c>
       <c r="AA46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC46">
         <v>7</v>
@@ -6294,7 +6291,7 @@
         <v>7</v>
       </c>
       <c r="AH46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s">
         <v>44</v>
@@ -6305,13 +6302,13 @@
         <v>36</v>
       </c>
       <c r="B47">
-        <v>2592</v>
+        <v>3549</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D47">
-        <v>2579</v>
+        <v>2607</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
@@ -6320,7 +6317,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47">
         <v>7</v>
@@ -6338,10 +6335,10 @@
         <v>7</v>
       </c>
       <c r="M47" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O47">
         <v>7</v>
@@ -6359,10 +6356,10 @@
         <v>7</v>
       </c>
       <c r="T47" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="U47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V47">
         <v>7</v>
@@ -6380,10 +6377,10 @@
         <v>7</v>
       </c>
       <c r="AA47" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AB47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC47">
         <v>7</v>
@@ -6401,7 +6398,7 @@
         <v>7</v>
       </c>
       <c r="AH47" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s">
         <v>44</v>
@@ -6412,13 +6409,13 @@
         <v>36</v>
       </c>
       <c r="B48">
-        <v>2589</v>
+        <v>2608</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D48">
-        <v>2579</v>
+        <v>2607</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
@@ -6427,7 +6424,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H48">
         <v>7</v>
@@ -6445,10 +6442,10 @@
         <v>7</v>
       </c>
       <c r="M48" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="N48" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="O48">
         <v>7</v>
@@ -6466,10 +6463,10 @@
         <v>7</v>
       </c>
       <c r="T48" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="U48" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="V48">
         <v>7</v>
@@ -6487,10 +6484,10 @@
         <v>7</v>
       </c>
       <c r="AA48" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AB48" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AC48">
         <v>7</v>
@@ -6508,7 +6505,7 @@
         <v>7</v>
       </c>
       <c r="AH48" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s">
         <v>44</v>
@@ -6519,13 +6516,13 @@
         <v>36</v>
       </c>
       <c r="B49">
-        <v>2610</v>
+        <v>2613</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D49">
-        <v>2579</v>
+        <v>2612</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
@@ -6534,7 +6531,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H49">
         <v>7</v>
@@ -6552,10 +6549,10 @@
         <v>7</v>
       </c>
       <c r="M49" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="N49" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="O49">
         <v>7</v>
@@ -6573,10 +6570,10 @@
         <v>7</v>
       </c>
       <c r="T49" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="U49" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="V49">
         <v>7</v>
@@ -6594,10 +6591,10 @@
         <v>7</v>
       </c>
       <c r="AA49" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="AB49" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AC49">
         <v>7</v>
@@ -6615,7 +6612,7 @@
         <v>7</v>
       </c>
       <c r="AH49" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="AI49" t="s">
         <v>44</v>
@@ -6626,13 +6623,13 @@
         <v>36</v>
       </c>
       <c r="B50">
-        <v>2599</v>
+        <v>3020</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D50">
-        <v>2579</v>
+        <v>2612</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
@@ -6641,7 +6638,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H50">
         <v>7</v>
@@ -6659,10 +6656,10 @@
         <v>7</v>
       </c>
       <c r="M50" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="N50" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="O50">
         <v>7</v>
@@ -6680,10 +6677,10 @@
         <v>7</v>
       </c>
       <c r="T50" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="U50" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="V50">
         <v>7</v>
@@ -6701,10 +6698,10 @@
         <v>7</v>
       </c>
       <c r="AA50" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AB50" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AC50">
         <v>7</v>
@@ -6722,7 +6719,7 @@
         <v>7</v>
       </c>
       <c r="AH50" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AI50" t="s">
         <v>44</v>
@@ -6733,13 +6730,10 @@
         <v>36</v>
       </c>
       <c r="B51">
-        <v>2597</v>
+        <v>2553</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51">
-        <v>2579</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
@@ -6748,7 +6742,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>7</v>
@@ -6763,13 +6757,13 @@
         <v>7</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M51" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="N51" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O51">
         <v>7</v>
@@ -6784,13 +6778,13 @@
         <v>7</v>
       </c>
       <c r="S51">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T51" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="U51" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V51">
         <v>7</v>
@@ -6805,13 +6799,13 @@
         <v>7</v>
       </c>
       <c r="Z51">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA51" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="AB51" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC51">
         <v>7</v>
@@ -6826,13 +6820,10 @@
         <v>7</v>
       </c>
       <c r="AG51">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH51" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.35">
@@ -6840,13 +6831,10 @@
         <v>36</v>
       </c>
       <c r="B52">
-        <v>2580</v>
+        <v>2641</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52">
-        <v>2579</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
         <v>38</v>
@@ -6855,7 +6843,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>7</v>
@@ -6870,13 +6858,13 @@
         <v>7</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M52" t="s">
         <v>41</v>
       </c>
       <c r="N52" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O52">
         <v>7</v>
@@ -6891,13 +6879,13 @@
         <v>7</v>
       </c>
       <c r="S52">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T52" t="s">
         <v>41</v>
       </c>
       <c r="U52" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V52">
         <v>7</v>
@@ -6912,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="Z52">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA52" t="s">
         <v>41</v>
       </c>
       <c r="AB52" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC52">
         <v>7</v>
@@ -6933,13 +6921,10 @@
         <v>7</v>
       </c>
       <c r="AG52">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH52" t="s">
         <v>43</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.35">
@@ -6947,13 +6932,10 @@
         <v>36</v>
       </c>
       <c r="B53">
-        <v>2605</v>
+        <v>3350</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53">
-        <v>2579</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
@@ -6962,7 +6944,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <v>7</v>
@@ -6977,13 +6959,13 @@
         <v>7</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M53" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="N53" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="O53">
         <v>7</v>
@@ -6998,13 +6980,13 @@
         <v>7</v>
       </c>
       <c r="S53">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T53" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="U53" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V53">
         <v>7</v>
@@ -7019,13 +7001,13 @@
         <v>7</v>
       </c>
       <c r="Z53">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA53" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="AB53" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AC53">
         <v>7</v>
@@ -7040,13 +7022,10 @@
         <v>7</v>
       </c>
       <c r="AG53">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH53" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.35">
@@ -7054,13 +7033,13 @@
         <v>36</v>
       </c>
       <c r="B54">
-        <v>2607</v>
+        <v>2572</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D54">
-        <v>2579</v>
+        <v>2569</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
@@ -7069,7 +7048,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>7</v>
@@ -7087,10 +7066,10 @@
         <v>7</v>
       </c>
       <c r="M54" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="N54" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O54">
         <v>7</v>
@@ -7108,10 +7087,10 @@
         <v>7</v>
       </c>
       <c r="T54" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="U54" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V54">
         <v>7</v>
@@ -7129,10 +7108,10 @@
         <v>7</v>
       </c>
       <c r="AA54" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="AB54" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC54">
         <v>7</v>
@@ -7150,10 +7129,10 @@
         <v>7</v>
       </c>
       <c r="AH54" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="AI54" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.35">
@@ -7161,13 +7140,13 @@
         <v>36</v>
       </c>
       <c r="B55">
-        <v>2612</v>
+        <v>2618</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D55">
-        <v>2579</v>
+        <v>2569</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
@@ -7176,7 +7155,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>7</v>
@@ -7194,73 +7173,73 @@
         <v>7</v>
       </c>
       <c r="M55" t="s">
+        <v>41</v>
+      </c>
+      <c r="N55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55">
+        <v>7</v>
+      </c>
+      <c r="P55">
+        <v>7</v>
+      </c>
+      <c r="Q55">
+        <v>7</v>
+      </c>
+      <c r="R55">
+        <v>7</v>
+      </c>
+      <c r="S55">
+        <v>7</v>
+      </c>
+      <c r="T55" t="s">
+        <v>41</v>
+      </c>
+      <c r="U55" t="s">
+        <v>42</v>
+      </c>
+      <c r="V55">
+        <v>7</v>
+      </c>
+      <c r="W55">
+        <v>7</v>
+      </c>
+      <c r="X55">
+        <v>7</v>
+      </c>
+      <c r="Y55">
+        <v>7</v>
+      </c>
+      <c r="Z55">
+        <v>7</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC55">
+        <v>7</v>
+      </c>
+      <c r="AD55">
+        <v>7</v>
+      </c>
+      <c r="AE55">
+        <v>7</v>
+      </c>
+      <c r="AF55">
+        <v>7</v>
+      </c>
+      <c r="AG55">
+        <v>7</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI55" t="s">
         <v>124</v>
-      </c>
-      <c r="N55" t="s">
-        <v>87</v>
-      </c>
-      <c r="O55">
-        <v>7</v>
-      </c>
-      <c r="P55">
-        <v>7</v>
-      </c>
-      <c r="Q55">
-        <v>7</v>
-      </c>
-      <c r="R55">
-        <v>7</v>
-      </c>
-      <c r="S55">
-        <v>7</v>
-      </c>
-      <c r="T55" t="s">
-        <v>124</v>
-      </c>
-      <c r="U55" t="s">
-        <v>87</v>
-      </c>
-      <c r="V55">
-        <v>7</v>
-      </c>
-      <c r="W55">
-        <v>7</v>
-      </c>
-      <c r="X55">
-        <v>7</v>
-      </c>
-      <c r="Y55">
-        <v>7</v>
-      </c>
-      <c r="Z55">
-        <v>7</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC55">
-        <v>7</v>
-      </c>
-      <c r="AD55">
-        <v>7</v>
-      </c>
-      <c r="AE55">
-        <v>7</v>
-      </c>
-      <c r="AF55">
-        <v>7</v>
-      </c>
-      <c r="AG55">
-        <v>7</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.35">
@@ -7268,13 +7247,13 @@
         <v>36</v>
       </c>
       <c r="B56">
-        <v>2566</v>
+        <v>2577</v>
       </c>
       <c r="C56" t="s">
         <v>126</v>
       </c>
       <c r="D56">
-        <v>2565</v>
+        <v>2569</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
@@ -7298,7 +7277,7 @@
         <v>7</v>
       </c>
       <c r="L56">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M56" t="s">
         <v>41</v>
@@ -7319,7 +7298,7 @@
         <v>7</v>
       </c>
       <c r="S56">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T56" t="s">
         <v>41</v>
@@ -7340,7 +7319,7 @@
         <v>7</v>
       </c>
       <c r="Z56">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA56" t="s">
         <v>41</v>
@@ -7361,13 +7340,13 @@
         <v>7</v>
       </c>
       <c r="AG56">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH56" t="s">
         <v>43</v>
       </c>
       <c r="AI56" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.35">
@@ -7375,13 +7354,13 @@
         <v>36</v>
       </c>
       <c r="B57">
-        <v>2568</v>
+        <v>2578</v>
       </c>
       <c r="C57" t="s">
         <v>127</v>
       </c>
       <c r="D57">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
@@ -7405,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="L57">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M57" t="s">
         <v>41</v>
@@ -7426,7 +7405,7 @@
         <v>7</v>
       </c>
       <c r="S57">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T57" t="s">
         <v>41</v>
@@ -7447,7 +7426,7 @@
         <v>7</v>
       </c>
       <c r="Z57">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA57" t="s">
         <v>41</v>
@@ -7468,13 +7447,13 @@
         <v>7</v>
       </c>
       <c r="AG57">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH57" t="s">
         <v>43</v>
       </c>
       <c r="AI57" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.35">
@@ -7482,13 +7461,13 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>2632</v>
+        <v>2571</v>
       </c>
       <c r="C58" t="s">
         <v>128</v>
       </c>
       <c r="D58">
-        <v>2631</v>
+        <v>2569</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
@@ -7497,7 +7476,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>7</v>
@@ -7515,10 +7494,10 @@
         <v>7</v>
       </c>
       <c r="M58" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="N58" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O58">
         <v>7</v>
@@ -7536,10 +7515,10 @@
         <v>7</v>
       </c>
       <c r="T58" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="U58" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V58">
         <v>7</v>
@@ -7557,10 +7536,10 @@
         <v>7</v>
       </c>
       <c r="AA58" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="AB58" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC58">
         <v>7</v>
@@ -7578,10 +7557,10 @@
         <v>7</v>
       </c>
       <c r="AH58" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="AI58" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.35">
@@ -7589,13 +7568,13 @@
         <v>36</v>
       </c>
       <c r="B59">
-        <v>3550</v>
+        <v>2575</v>
       </c>
       <c r="C59" t="s">
         <v>129</v>
       </c>
       <c r="D59">
-        <v>2631</v>
+        <v>2569</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
@@ -7622,10 +7601,10 @@
         <v>7</v>
       </c>
       <c r="M59" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="N59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O59">
         <v>7</v>
@@ -7643,10 +7622,10 @@
         <v>7</v>
       </c>
       <c r="T59" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="U59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V59">
         <v>7</v>
@@ -7664,10 +7643,10 @@
         <v>7</v>
       </c>
       <c r="AA59" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="AB59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC59">
         <v>7</v>
@@ -7685,10 +7664,10 @@
         <v>7</v>
       </c>
       <c r="AH59" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="AI59" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.35">
@@ -7696,13 +7675,13 @@
         <v>36</v>
       </c>
       <c r="B60">
-        <v>2604</v>
+        <v>2559</v>
       </c>
       <c r="C60" t="s">
         <v>130</v>
       </c>
       <c r="D60">
-        <v>2601</v>
+        <v>2553</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
@@ -7711,7 +7690,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H60">
         <v>7</v>
@@ -7726,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="L60">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M60" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N60" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="O60">
         <v>7</v>
@@ -7747,13 +7726,13 @@
         <v>7</v>
       </c>
       <c r="S60">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T60" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="U60" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V60">
         <v>7</v>
@@ -7768,13 +7747,13 @@
         <v>7</v>
       </c>
       <c r="Z60">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA60" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB60" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AC60">
         <v>7</v>
@@ -7789,13 +7768,13 @@
         <v>7</v>
       </c>
       <c r="AG60">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH60" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AI60" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.35">
@@ -7803,13 +7782,13 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <v>2602</v>
+        <v>2554</v>
       </c>
       <c r="C61" t="s">
         <v>131</v>
       </c>
       <c r="D61">
-        <v>2601</v>
+        <v>2553</v>
       </c>
       <c r="E61" t="s">
         <v>38</v>
@@ -7818,7 +7797,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H61">
         <v>7</v>
@@ -7833,13 +7812,13 @@
         <v>7</v>
       </c>
       <c r="L61">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M61" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N61" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O61">
         <v>7</v>
@@ -7854,13 +7833,13 @@
         <v>7</v>
       </c>
       <c r="S61">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T61" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="U61" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V61">
         <v>7</v>
@@ -7875,13 +7854,13 @@
         <v>7</v>
       </c>
       <c r="Z61">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA61" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB61" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC61">
         <v>7</v>
@@ -7896,13 +7875,13 @@
         <v>7</v>
       </c>
       <c r="AG61">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH61" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AI61" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.35">
@@ -7910,13 +7889,13 @@
         <v>36</v>
       </c>
       <c r="B62">
-        <v>2603</v>
+        <v>2555</v>
       </c>
       <c r="C62" t="s">
         <v>132</v>
       </c>
       <c r="D62">
-        <v>2601</v>
+        <v>2553</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
@@ -7925,7 +7904,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>7</v>
@@ -7940,13 +7919,13 @@
         <v>7</v>
       </c>
       <c r="L62">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M62" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N62" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O62">
         <v>7</v>
@@ -7961,13 +7940,13 @@
         <v>7</v>
       </c>
       <c r="S62">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T62" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="U62" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V62">
         <v>7</v>
@@ -7982,13 +7961,13 @@
         <v>7</v>
       </c>
       <c r="Z62">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA62" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB62" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC62">
         <v>7</v>
@@ -8003,13 +7982,13 @@
         <v>7</v>
       </c>
       <c r="AG62">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH62" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AI62" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.35">
@@ -8017,13 +7996,13 @@
         <v>36</v>
       </c>
       <c r="B63">
-        <v>3552</v>
+        <v>2561</v>
       </c>
       <c r="C63" t="s">
         <v>133</v>
       </c>
       <c r="D63">
-        <v>3551</v>
+        <v>2553</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
@@ -8032,7 +8011,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>7</v>
@@ -8047,13 +8026,13 @@
         <v>7</v>
       </c>
       <c r="L63">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M63" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="N63" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O63">
         <v>7</v>
@@ -8068,13 +8047,13 @@
         <v>7</v>
       </c>
       <c r="S63">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T63" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="U63" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V63">
         <v>7</v>
@@ -8089,13 +8068,13 @@
         <v>7</v>
       </c>
       <c r="Z63">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA63" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="AB63" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC63">
         <v>7</v>
@@ -8110,13 +8089,13 @@
         <v>7</v>
       </c>
       <c r="AG63">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH63" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="AI63" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.35">
@@ -8124,13 +8103,13 @@
         <v>36</v>
       </c>
       <c r="B64">
-        <v>2595</v>
+        <v>2556</v>
       </c>
       <c r="C64" t="s">
         <v>134</v>
       </c>
       <c r="D64">
-        <v>2592</v>
+        <v>2553</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
@@ -8139,7 +8118,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>7</v>
@@ -8154,13 +8133,13 @@
         <v>7</v>
       </c>
       <c r="L64">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M64" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="N64" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="O64">
         <v>7</v>
@@ -8175,13 +8154,13 @@
         <v>7</v>
       </c>
       <c r="S64">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T64" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="U64" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V64">
         <v>7</v>
@@ -8196,13 +8175,13 @@
         <v>7</v>
       </c>
       <c r="Z64">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA64" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AB64" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AC64">
         <v>7</v>
@@ -8217,13 +8196,13 @@
         <v>7</v>
       </c>
       <c r="AG64">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH64" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="AI64" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.35">
@@ -8231,13 +8210,13 @@
         <v>36</v>
       </c>
       <c r="B65">
-        <v>2594</v>
+        <v>2560</v>
       </c>
       <c r="C65" t="s">
         <v>135</v>
       </c>
       <c r="D65">
-        <v>2592</v>
+        <v>2553</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
@@ -8261,13 +8240,13 @@
         <v>7</v>
       </c>
       <c r="L65">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M65" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="N65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O65">
         <v>7</v>
@@ -8282,13 +8261,13 @@
         <v>7</v>
       </c>
       <c r="S65">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T65" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="U65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V65">
         <v>7</v>
@@ -8303,13 +8282,13 @@
         <v>7</v>
       </c>
       <c r="Z65">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA65" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AB65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC65">
         <v>7</v>
@@ -8324,13 +8303,13 @@
         <v>7</v>
       </c>
       <c r="AG65">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH65" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="AI65" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.35">
@@ -8338,13 +8317,13 @@
         <v>36</v>
       </c>
       <c r="B66">
-        <v>2593</v>
+        <v>2563</v>
       </c>
       <c r="C66" t="s">
         <v>136</v>
       </c>
       <c r="D66">
-        <v>2592</v>
+        <v>2553</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
@@ -8353,7 +8332,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <v>7</v>
@@ -8368,13 +8347,13 @@
         <v>7</v>
       </c>
       <c r="L66">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M66" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="N66" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O66">
         <v>7</v>
@@ -8389,13 +8368,13 @@
         <v>7</v>
       </c>
       <c r="S66">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T66" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="U66" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V66">
         <v>7</v>
@@ -8410,13 +8389,13 @@
         <v>7</v>
       </c>
       <c r="Z66">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA66" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AB66" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC66">
         <v>7</v>
@@ -8431,13 +8410,13 @@
         <v>7</v>
       </c>
       <c r="AG66">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH66" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="AI66" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.35">
@@ -8445,13 +8424,13 @@
         <v>36</v>
       </c>
       <c r="B67">
-        <v>3018</v>
+        <v>2623</v>
       </c>
       <c r="C67" t="s">
         <v>137</v>
       </c>
       <c r="D67">
-        <v>2592</v>
+        <v>2618</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
@@ -8460,7 +8439,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H67">
         <v>7</v>
@@ -8478,10 +8457,10 @@
         <v>7</v>
       </c>
       <c r="M67" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="N67" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O67">
         <v>7</v>
@@ -8499,10 +8478,10 @@
         <v>7</v>
       </c>
       <c r="T67" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="U67" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V67">
         <v>7</v>
@@ -8520,10 +8499,10 @@
         <v>7</v>
       </c>
       <c r="AA67" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AB67" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC67">
         <v>7</v>
@@ -8541,10 +8520,10 @@
         <v>7</v>
       </c>
       <c r="AH67" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="AI67" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.35">
@@ -8552,13 +8531,13 @@
         <v>36</v>
       </c>
       <c r="B68">
-        <v>2596</v>
+        <v>2629</v>
       </c>
       <c r="C68" t="s">
         <v>138</v>
       </c>
       <c r="D68">
-        <v>2592</v>
+        <v>2618</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
@@ -8567,7 +8546,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>7</v>
@@ -8585,10 +8564,10 @@
         <v>7</v>
       </c>
       <c r="M68" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="N68" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O68">
         <v>7</v>
@@ -8606,10 +8585,10 @@
         <v>7</v>
       </c>
       <c r="T68" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="U68" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="V68">
         <v>7</v>
@@ -8627,10 +8606,10 @@
         <v>7</v>
       </c>
       <c r="AA68" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AB68" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="AC68">
         <v>7</v>
@@ -8648,10 +8627,10 @@
         <v>7</v>
       </c>
       <c r="AH68" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="AI68" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.35">
@@ -8659,13 +8638,13 @@
         <v>36</v>
       </c>
       <c r="B69">
-        <v>2590</v>
+        <v>3554</v>
       </c>
       <c r="C69" t="s">
         <v>139</v>
       </c>
       <c r="D69">
-        <v>2589</v>
+        <v>2618</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
@@ -8674,7 +8653,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>7</v>
@@ -8692,10 +8671,10 @@
         <v>7</v>
       </c>
       <c r="M69" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="N69" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O69">
         <v>7</v>
@@ -8713,10 +8692,10 @@
         <v>7</v>
       </c>
       <c r="T69" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="U69" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V69">
         <v>7</v>
@@ -8734,10 +8713,10 @@
         <v>7</v>
       </c>
       <c r="AA69" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="AB69" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC69">
         <v>7</v>
@@ -8755,10 +8734,10 @@
         <v>7</v>
       </c>
       <c r="AH69" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="AI69" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.35">
@@ -8766,13 +8745,13 @@
         <v>36</v>
       </c>
       <c r="B70">
-        <v>2591</v>
+        <v>2579</v>
       </c>
       <c r="C70" t="s">
         <v>140</v>
       </c>
       <c r="D70">
-        <v>2589</v>
+        <v>2578</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
@@ -8781,7 +8760,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>7</v>
@@ -8799,10 +8778,10 @@
         <v>7</v>
       </c>
       <c r="M70" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="N70" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O70">
         <v>7</v>
@@ -8820,10 +8799,10 @@
         <v>7</v>
       </c>
       <c r="T70" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="U70" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V70">
         <v>7</v>
@@ -8841,10 +8820,10 @@
         <v>7</v>
       </c>
       <c r="AA70" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="AB70" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC70">
         <v>7</v>
@@ -8862,10 +8841,10 @@
         <v>7</v>
       </c>
       <c r="AH70" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="AI70" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.35">
@@ -8873,13 +8852,13 @@
         <v>36</v>
       </c>
       <c r="B71">
-        <v>2611</v>
+        <v>2565</v>
       </c>
       <c r="C71" t="s">
         <v>141</v>
       </c>
       <c r="D71">
-        <v>2610</v>
+        <v>2564</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
@@ -8888,7 +8867,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>7</v>
@@ -8903,13 +8882,13 @@
         <v>7</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M71" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="N71" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O71">
         <v>7</v>
@@ -8924,13 +8903,13 @@
         <v>7</v>
       </c>
       <c r="S71">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T71" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="U71" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V71">
         <v>7</v>
@@ -8945,13 +8924,13 @@
         <v>7</v>
       </c>
       <c r="Z71">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA71" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="AB71" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC71">
         <v>7</v>
@@ -8966,13 +8945,13 @@
         <v>7</v>
       </c>
       <c r="AG71">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH71" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="AI71" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.35">
@@ -8980,13 +8959,13 @@
         <v>36</v>
       </c>
       <c r="B72">
-        <v>3019</v>
+        <v>2567</v>
       </c>
       <c r="C72" t="s">
         <v>142</v>
       </c>
       <c r="D72">
-        <v>2610</v>
+        <v>2564</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
@@ -8995,7 +8974,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>7</v>
@@ -9010,13 +8989,13 @@
         <v>7</v>
       </c>
       <c r="L72">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M72" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="N72" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O72">
         <v>7</v>
@@ -9031,13 +9010,13 @@
         <v>7</v>
       </c>
       <c r="S72">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T72" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="U72" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V72">
         <v>7</v>
@@ -9052,13 +9031,13 @@
         <v>7</v>
       </c>
       <c r="Z72">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA72" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="AB72" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC72">
         <v>7</v>
@@ -9073,13 +9052,13 @@
         <v>7</v>
       </c>
       <c r="AG72">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH72" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="AI72" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.35">
@@ -9087,13 +9066,13 @@
         <v>36</v>
       </c>
       <c r="B73">
-        <v>2600</v>
+        <v>2558</v>
       </c>
       <c r="C73" t="s">
         <v>143</v>
       </c>
       <c r="D73">
-        <v>2599</v>
+        <v>2556</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
@@ -9102,7 +9081,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H73">
         <v>7</v>
@@ -9117,13 +9096,13 @@
         <v>7</v>
       </c>
       <c r="L73">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M73" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="N73" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O73">
         <v>7</v>
@@ -9138,13 +9117,13 @@
         <v>7</v>
       </c>
       <c r="S73">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T73" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="U73" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V73">
         <v>7</v>
@@ -9159,13 +9138,13 @@
         <v>7</v>
       </c>
       <c r="Z73">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA73" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="AB73" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC73">
         <v>7</v>
@@ -9180,13 +9159,13 @@
         <v>7</v>
       </c>
       <c r="AG73">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH73" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="AI73" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.35">
@@ -9194,13 +9173,13 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>2598</v>
+        <v>2557</v>
       </c>
       <c r="C74" t="s">
         <v>144</v>
       </c>
       <c r="D74">
-        <v>2597</v>
+        <v>2556</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
@@ -9209,7 +9188,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>7</v>
@@ -9224,13 +9203,13 @@
         <v>7</v>
       </c>
       <c r="L74">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M74" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="N74" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O74">
         <v>7</v>
@@ -9245,13 +9224,13 @@
         <v>7</v>
       </c>
       <c r="S74">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T74" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="U74" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V74">
         <v>7</v>
@@ -9266,13 +9245,13 @@
         <v>7</v>
       </c>
       <c r="Z74">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA74" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="AB74" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC74">
         <v>7</v>
@@ -9287,13 +9266,13 @@
         <v>7</v>
       </c>
       <c r="AG74">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH74" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="AI74" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.35">
@@ -9301,13 +9280,13 @@
         <v>36</v>
       </c>
       <c r="B75">
-        <v>2585</v>
+        <v>3346</v>
       </c>
       <c r="C75" t="s">
         <v>145</v>
       </c>
       <c r="D75">
-        <v>2580</v>
+        <v>3344</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
@@ -9316,7 +9295,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>7</v>
@@ -9331,13 +9310,13 @@
         <v>7</v>
       </c>
       <c r="L75">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M75" t="s">
         <v>41</v>
       </c>
       <c r="N75" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O75">
         <v>7</v>
@@ -9352,13 +9331,13 @@
         <v>7</v>
       </c>
       <c r="S75">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T75" t="s">
         <v>41</v>
       </c>
       <c r="U75" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="V75">
         <v>7</v>
@@ -9373,13 +9352,13 @@
         <v>7</v>
       </c>
       <c r="Z75">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA75" t="s">
         <v>41</v>
       </c>
       <c r="AB75" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="AC75">
         <v>7</v>
@@ -9394,13 +9373,13 @@
         <v>7</v>
       </c>
       <c r="AG75">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH75" t="s">
         <v>43</v>
       </c>
       <c r="AI75" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.35">
@@ -9408,13 +9387,13 @@
         <v>36</v>
       </c>
       <c r="B76">
-        <v>2583</v>
+        <v>2624</v>
       </c>
       <c r="C76" t="s">
         <v>146</v>
       </c>
       <c r="D76">
-        <v>2580</v>
+        <v>2623</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
@@ -9423,7 +9402,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H76">
         <v>7</v>
@@ -9444,7 +9423,7 @@
         <v>41</v>
       </c>
       <c r="N76" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="O76">
         <v>7</v>
@@ -9465,7 +9444,7 @@
         <v>41</v>
       </c>
       <c r="U76" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="V76">
         <v>7</v>
@@ -9486,7 +9465,7 @@
         <v>41</v>
       </c>
       <c r="AB76" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AC76">
         <v>7</v>
@@ -9507,7 +9486,7 @@
         <v>43</v>
       </c>
       <c r="AI76" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.35">
@@ -9515,13 +9494,13 @@
         <v>36</v>
       </c>
       <c r="B77">
-        <v>2581</v>
+        <v>2625</v>
       </c>
       <c r="C77" t="s">
         <v>147</v>
       </c>
       <c r="D77">
-        <v>2580</v>
+        <v>2623</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
@@ -9530,7 +9509,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H77">
         <v>7</v>
@@ -9551,7 +9530,7 @@
         <v>41</v>
       </c>
       <c r="N77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O77">
         <v>7</v>
@@ -9572,7 +9551,7 @@
         <v>41</v>
       </c>
       <c r="U77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V77">
         <v>7</v>
@@ -9593,7 +9572,7 @@
         <v>41</v>
       </c>
       <c r="AB77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC77">
         <v>7</v>
@@ -9614,7 +9593,7 @@
         <v>43</v>
       </c>
       <c r="AI77" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.35">
@@ -9622,13 +9601,13 @@
         <v>36</v>
       </c>
       <c r="B78">
-        <v>2582</v>
+        <v>2627</v>
       </c>
       <c r="C78" t="s">
         <v>148</v>
       </c>
       <c r="D78">
-        <v>2580</v>
+        <v>2623</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
@@ -9637,7 +9616,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H78">
         <v>7</v>
@@ -9658,7 +9637,7 @@
         <v>41</v>
       </c>
       <c r="N78" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="O78">
         <v>7</v>
@@ -9679,7 +9658,7 @@
         <v>41</v>
       </c>
       <c r="U78" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="V78">
         <v>7</v>
@@ -9700,7 +9679,7 @@
         <v>41</v>
       </c>
       <c r="AB78" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AC78">
         <v>7</v>
@@ -9721,7 +9700,7 @@
         <v>43</v>
       </c>
       <c r="AI78" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.35">
@@ -9729,13 +9708,13 @@
         <v>36</v>
       </c>
       <c r="B79">
-        <v>2584</v>
+        <v>2626</v>
       </c>
       <c r="C79" t="s">
         <v>149</v>
       </c>
       <c r="D79">
-        <v>2580</v>
+        <v>2623</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
@@ -9744,7 +9723,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H79">
         <v>7</v>
@@ -9765,7 +9744,7 @@
         <v>41</v>
       </c>
       <c r="N79" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="O79">
         <v>7</v>
@@ -9786,7 +9765,7 @@
         <v>41</v>
       </c>
       <c r="U79" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="V79">
         <v>7</v>
@@ -9807,7 +9786,7 @@
         <v>41</v>
       </c>
       <c r="AB79" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AC79">
         <v>7</v>
@@ -9828,7 +9807,7 @@
         <v>43</v>
       </c>
       <c r="AI79" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.35">
@@ -9836,13 +9815,13 @@
         <v>36</v>
       </c>
       <c r="B80">
-        <v>3553</v>
+        <v>2630</v>
       </c>
       <c r="C80" t="s">
         <v>150</v>
       </c>
       <c r="D80">
-        <v>2605</v>
+        <v>2629</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
@@ -9851,7 +9830,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>7</v>
@@ -9869,10 +9848,10 @@
         <v>7</v>
       </c>
       <c r="M80" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="N80" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O80">
         <v>7</v>
@@ -9890,10 +9869,10 @@
         <v>7</v>
       </c>
       <c r="T80" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="U80" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V80">
         <v>7</v>
@@ -9911,10 +9890,10 @@
         <v>7</v>
       </c>
       <c r="AA80" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="AB80" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC80">
         <v>7</v>
@@ -9932,10 +9911,10 @@
         <v>7</v>
       </c>
       <c r="AH80" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="AI80" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.35">
@@ -9943,13 +9922,13 @@
         <v>36</v>
       </c>
       <c r="B81">
-        <v>2606</v>
+        <v>2580</v>
       </c>
       <c r="C81" t="s">
         <v>151</v>
       </c>
       <c r="D81">
-        <v>2605</v>
+        <v>2579</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
@@ -9958,7 +9937,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -9976,10 +9955,10 @@
         <v>7</v>
       </c>
       <c r="M81" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="N81" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="O81">
         <v>7</v>
@@ -9997,10 +9976,10 @@
         <v>7</v>
       </c>
       <c r="T81" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="U81" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="V81">
         <v>7</v>
@@ -10018,10 +9997,10 @@
         <v>7</v>
       </c>
       <c r="AA81" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="AB81" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AC81">
         <v>7</v>
@@ -10039,10 +10018,10 @@
         <v>7</v>
       </c>
       <c r="AH81" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="AI81" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.35">
@@ -10050,13 +10029,13 @@
         <v>36</v>
       </c>
       <c r="B82">
-        <v>3549</v>
+        <v>2566</v>
       </c>
       <c r="C82" t="s">
         <v>152</v>
       </c>
       <c r="D82">
-        <v>2607</v>
+        <v>2565</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
@@ -10065,7 +10044,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>7</v>
@@ -10080,13 +10059,13 @@
         <v>7</v>
       </c>
       <c r="L82">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M82" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="N82" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="O82">
         <v>7</v>
@@ -10101,13 +10080,13 @@
         <v>7</v>
       </c>
       <c r="S82">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T82" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="U82" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="V82">
         <v>7</v>
@@ -10122,13 +10101,13 @@
         <v>7</v>
       </c>
       <c r="Z82">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA82" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="AB82" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AC82">
         <v>7</v>
@@ -10143,13 +10122,13 @@
         <v>7</v>
       </c>
       <c r="AG82">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH82" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="AI82" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.35">
@@ -10157,13 +10136,13 @@
         <v>36</v>
       </c>
       <c r="B83">
-        <v>2608</v>
+        <v>2568</v>
       </c>
       <c r="C83" t="s">
         <v>153</v>
       </c>
       <c r="D83">
-        <v>2607</v>
+        <v>2567</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
@@ -10172,7 +10151,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>7</v>
@@ -10187,13 +10166,13 @@
         <v>7</v>
       </c>
       <c r="L83">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M83" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="N83" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O83">
         <v>7</v>
@@ -10208,13 +10187,13 @@
         <v>7</v>
       </c>
       <c r="S83">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T83" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="U83" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="V83">
         <v>7</v>
@@ -10229,13 +10208,13 @@
         <v>7</v>
       </c>
       <c r="Z83">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA83" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="AB83" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AC83">
         <v>7</v>
@@ -10250,13 +10229,13 @@
         <v>7</v>
       </c>
       <c r="AG83">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH83" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="AI83" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.35">
@@ -10264,13 +10243,13 @@
         <v>36</v>
       </c>
       <c r="B84">
-        <v>2613</v>
+        <v>2585</v>
       </c>
       <c r="C84" t="s">
         <v>154</v>
       </c>
       <c r="D84">
-        <v>2612</v>
+        <v>2580</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
@@ -10279,7 +10258,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H84">
         <v>7</v>
@@ -10297,73 +10276,73 @@
         <v>7</v>
       </c>
       <c r="M84" t="s">
+        <v>41</v>
+      </c>
+      <c r="N84" t="s">
+        <v>65</v>
+      </c>
+      <c r="O84">
+        <v>7</v>
+      </c>
+      <c r="P84">
+        <v>7</v>
+      </c>
+      <c r="Q84">
+        <v>7</v>
+      </c>
+      <c r="R84">
+        <v>7</v>
+      </c>
+      <c r="S84">
+        <v>7</v>
+      </c>
+      <c r="T84" t="s">
+        <v>41</v>
+      </c>
+      <c r="U84" t="s">
+        <v>65</v>
+      </c>
+      <c r="V84">
+        <v>7</v>
+      </c>
+      <c r="W84">
+        <v>7</v>
+      </c>
+      <c r="X84">
+        <v>7</v>
+      </c>
+      <c r="Y84">
+        <v>7</v>
+      </c>
+      <c r="Z84">
+        <v>7</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC84">
+        <v>7</v>
+      </c>
+      <c r="AD84">
+        <v>7</v>
+      </c>
+      <c r="AE84">
+        <v>7</v>
+      </c>
+      <c r="AF84">
+        <v>7</v>
+      </c>
+      <c r="AG84">
+        <v>7</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI84" t="s">
         <v>124</v>
-      </c>
-      <c r="N84" t="s">
-        <v>87</v>
-      </c>
-      <c r="O84">
-        <v>7</v>
-      </c>
-      <c r="P84">
-        <v>7</v>
-      </c>
-      <c r="Q84">
-        <v>7</v>
-      </c>
-      <c r="R84">
-        <v>7</v>
-      </c>
-      <c r="S84">
-        <v>7</v>
-      </c>
-      <c r="T84" t="s">
-        <v>124</v>
-      </c>
-      <c r="U84" t="s">
-        <v>87</v>
-      </c>
-      <c r="V84">
-        <v>7</v>
-      </c>
-      <c r="W84">
-        <v>7</v>
-      </c>
-      <c r="X84">
-        <v>7</v>
-      </c>
-      <c r="Y84">
-        <v>7</v>
-      </c>
-      <c r="Z84">
-        <v>7</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC84">
-        <v>7</v>
-      </c>
-      <c r="AD84">
-        <v>7</v>
-      </c>
-      <c r="AE84">
-        <v>7</v>
-      </c>
-      <c r="AF84">
-        <v>7</v>
-      </c>
-      <c r="AG84">
-        <v>7</v>
-      </c>
-      <c r="AH84" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.35">
@@ -10371,13 +10350,13 @@
         <v>36</v>
       </c>
       <c r="B85">
-        <v>3020</v>
+        <v>2583</v>
       </c>
       <c r="C85" t="s">
         <v>155</v>
       </c>
       <c r="D85">
-        <v>2612</v>
+        <v>2580</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
@@ -10386,7 +10365,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H85">
         <v>7</v>
@@ -10404,73 +10383,73 @@
         <v>7</v>
       </c>
       <c r="M85" t="s">
+        <v>41</v>
+      </c>
+      <c r="N85" t="s">
+        <v>61</v>
+      </c>
+      <c r="O85">
+        <v>7</v>
+      </c>
+      <c r="P85">
+        <v>7</v>
+      </c>
+      <c r="Q85">
+        <v>7</v>
+      </c>
+      <c r="R85">
+        <v>7</v>
+      </c>
+      <c r="S85">
+        <v>7</v>
+      </c>
+      <c r="T85" t="s">
+        <v>41</v>
+      </c>
+      <c r="U85" t="s">
+        <v>61</v>
+      </c>
+      <c r="V85">
+        <v>7</v>
+      </c>
+      <c r="W85">
+        <v>7</v>
+      </c>
+      <c r="X85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>7</v>
+      </c>
+      <c r="Z85">
+        <v>7</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC85">
+        <v>7</v>
+      </c>
+      <c r="AD85">
+        <v>7</v>
+      </c>
+      <c r="AE85">
+        <v>7</v>
+      </c>
+      <c r="AF85">
+        <v>7</v>
+      </c>
+      <c r="AG85">
+        <v>7</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI85" t="s">
         <v>124</v>
-      </c>
-      <c r="N85" t="s">
-        <v>87</v>
-      </c>
-      <c r="O85">
-        <v>7</v>
-      </c>
-      <c r="P85">
-        <v>7</v>
-      </c>
-      <c r="Q85">
-        <v>7</v>
-      </c>
-      <c r="R85">
-        <v>7</v>
-      </c>
-      <c r="S85">
-        <v>7</v>
-      </c>
-      <c r="T85" t="s">
-        <v>124</v>
-      </c>
-      <c r="U85" t="s">
-        <v>87</v>
-      </c>
-      <c r="V85">
-        <v>7</v>
-      </c>
-      <c r="W85">
-        <v>7</v>
-      </c>
-      <c r="X85">
-        <v>7</v>
-      </c>
-      <c r="Y85">
-        <v>7</v>
-      </c>
-      <c r="Z85">
-        <v>7</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC85">
-        <v>7</v>
-      </c>
-      <c r="AD85">
-        <v>7</v>
-      </c>
-      <c r="AE85">
-        <v>7</v>
-      </c>
-      <c r="AF85">
-        <v>7</v>
-      </c>
-      <c r="AG85">
-        <v>7</v>
-      </c>
-      <c r="AH85" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI85" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.35">
@@ -10478,11 +10457,14 @@
         <v>36</v>
       </c>
       <c r="B86">
-        <v>2637</v>
+        <v>2581</v>
       </c>
       <c r="C86" t="s">
         <v>156</v>
       </c>
+      <c r="D86">
+        <v>2580</v>
+      </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
@@ -10490,7 +10472,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H86">
         <v>7</v>
@@ -10505,13 +10487,13 @@
         <v>7</v>
       </c>
       <c r="L86">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M86" t="s">
         <v>41</v>
       </c>
       <c r="N86" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O86">
         <v>7</v>
@@ -10526,13 +10508,13 @@
         <v>7</v>
       </c>
       <c r="S86">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T86" t="s">
         <v>41</v>
       </c>
       <c r="U86" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V86">
         <v>7</v>
@@ -10547,13 +10529,13 @@
         <v>7</v>
       </c>
       <c r="Z86">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA86" t="s">
         <v>41</v>
       </c>
       <c r="AB86" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC86">
         <v>7</v>
@@ -10568,13 +10550,13 @@
         <v>7</v>
       </c>
       <c r="AG86">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH86" t="s">
         <v>43</v>
       </c>
       <c r="AI86" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.35">
@@ -10582,11 +10564,14 @@
         <v>36</v>
       </c>
       <c r="B87">
-        <v>2569</v>
+        <v>2582</v>
       </c>
       <c r="C87" t="s">
         <v>157</v>
       </c>
+      <c r="D87">
+        <v>2580</v>
+      </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
@@ -10594,7 +10579,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H87">
         <v>7</v>
@@ -10615,7 +10600,7 @@
         <v>41</v>
       </c>
       <c r="N87" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O87">
         <v>7</v>
@@ -10636,7 +10621,7 @@
         <v>41</v>
       </c>
       <c r="U87" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="V87">
         <v>7</v>
@@ -10657,7 +10642,7 @@
         <v>41</v>
       </c>
       <c r="AB87" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC87">
         <v>7</v>
@@ -10678,7 +10663,7 @@
         <v>43</v>
       </c>
       <c r="AI87" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.35">
@@ -10686,11 +10671,14 @@
         <v>36</v>
       </c>
       <c r="B88">
-        <v>3349</v>
+        <v>2584</v>
       </c>
       <c r="C88" t="s">
         <v>158</v>
       </c>
+      <c r="D88">
+        <v>2580</v>
+      </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
@@ -10701,88 +10689,88 @@
         <v>40</v>
       </c>
       <c r="H88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I88">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="J88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L88">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M88" t="s">
         <v>41</v>
       </c>
       <c r="N88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="P88">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="R88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="S88">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T88" t="s">
         <v>41</v>
       </c>
       <c r="U88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="W88">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="X88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Y88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Z88">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA88" t="s">
         <v>41</v>
       </c>
       <c r="AB88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AD88">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AE88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AF88">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AG88">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH88" t="s">
         <v>43</v>
       </c>
       <c r="AI88" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.35">
@@ -10790,7 +10778,7 @@
         <v>36</v>
       </c>
       <c r="B89">
-        <v>2553</v>
+        <v>2637</v>
       </c>
       <c r="C89" t="s">
         <v>159</v>
@@ -10884,9 +10872,6 @@
       </c>
       <c r="AH89" t="s">
         <v>43</v>
-      </c>
-      <c r="AI89" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.35">
@@ -10894,7 +10879,7 @@
         <v>36</v>
       </c>
       <c r="B90">
-        <v>2641</v>
+        <v>2569</v>
       </c>
       <c r="C90" t="s">
         <v>160</v>
@@ -10921,7 +10906,7 @@
         <v>7</v>
       </c>
       <c r="L90">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M90" t="s">
         <v>41</v>
@@ -10942,7 +10927,7 @@
         <v>7</v>
       </c>
       <c r="S90">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T90" t="s">
         <v>41</v>
@@ -10963,7 +10948,7 @@
         <v>7</v>
       </c>
       <c r="Z90">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA90" t="s">
         <v>41</v>
@@ -10984,13 +10969,10 @@
         <v>7</v>
       </c>
       <c r="AG90">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH90" t="s">
         <v>43</v>
-      </c>
-      <c r="AI90" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.35">
@@ -10998,7 +10980,7 @@
         <v>36</v>
       </c>
       <c r="B91">
-        <v>2659</v>
+        <v>3349</v>
       </c>
       <c r="C91" t="s">
         <v>161</v>
@@ -11013,16 +10995,16 @@
         <v>40</v>
       </c>
       <c r="H91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I91">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="J91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L91">
         <v>253</v>
@@ -11034,16 +11016,16 @@
         <v>42</v>
       </c>
       <c r="O91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="P91">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Q91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="R91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="S91">
         <v>253</v>
@@ -11055,16 +11037,16 @@
         <v>42</v>
       </c>
       <c r="V91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="W91">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="X91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Y91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Z91">
         <v>253</v>
@@ -11076,25 +11058,22 @@
         <v>42</v>
       </c>
       <c r="AC91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AD91">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="AE91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AF91">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AG91">
         <v>253</v>
       </c>
       <c r="AH91" t="s">
         <v>43</v>
-      </c>
-      <c r="AI91" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.35">
@@ -11102,7 +11081,7 @@
         <v>36</v>
       </c>
       <c r="B92">
-        <v>2656</v>
+        <v>2659</v>
       </c>
       <c r="C92" t="s">
         <v>162</v>
@@ -11117,10 +11096,10 @@
         <v>40</v>
       </c>
       <c r="H92">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="I92">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="J92">
         <v>7</v>
@@ -11138,10 +11117,10 @@
         <v>42</v>
       </c>
       <c r="O92">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="P92">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -11159,10 +11138,10 @@
         <v>42</v>
       </c>
       <c r="V92">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="W92">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="X92">
         <v>7</v>
@@ -11180,10 +11159,10 @@
         <v>42</v>
       </c>
       <c r="AC92">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="AD92">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="AE92">
         <v>7</v>
@@ -11196,9 +11175,6 @@
       </c>
       <c r="AH92" t="s">
         <v>43</v>
-      </c>
-      <c r="AI92" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.35">
@@ -11206,7 +11182,7 @@
         <v>36</v>
       </c>
       <c r="B93">
-        <v>2948</v>
+        <v>2656</v>
       </c>
       <c r="C93" t="s">
         <v>163</v>
@@ -11221,10 +11197,10 @@
         <v>40</v>
       </c>
       <c r="H93">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="I93">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="J93">
         <v>7</v>
@@ -11242,10 +11218,10 @@
         <v>42</v>
       </c>
       <c r="O93">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="P93">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -11263,10 +11239,10 @@
         <v>42</v>
       </c>
       <c r="V93">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="W93">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="X93">
         <v>7</v>
@@ -11284,10 +11260,10 @@
         <v>42</v>
       </c>
       <c r="AC93">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AD93">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AE93">
         <v>7</v>
@@ -11300,9 +11276,6 @@
       </c>
       <c r="AH93" t="s">
         <v>43</v>
-      </c>
-      <c r="AI93" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.35">
@@ -11310,7 +11283,7 @@
         <v>36</v>
       </c>
       <c r="B94">
-        <v>2658</v>
+        <v>2948</v>
       </c>
       <c r="C94" t="s">
         <v>164</v>
@@ -11325,16 +11298,16 @@
         <v>40</v>
       </c>
       <c r="H94">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I94">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="J94">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="K94">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="L94">
         <v>253</v>
@@ -11346,16 +11319,16 @@
         <v>42</v>
       </c>
       <c r="O94">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="P94">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="Q94">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="R94">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="S94">
         <v>253</v>
@@ -11367,16 +11340,16 @@
         <v>42</v>
       </c>
       <c r="V94">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="W94">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="X94">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y94">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Z94">
         <v>253</v>
@@ -11388,25 +11361,22 @@
         <v>42</v>
       </c>
       <c r="AC94">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AD94">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="AE94">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AF94">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AG94">
         <v>253</v>
       </c>
       <c r="AH94" t="s">
         <v>43</v>
-      </c>
-      <c r="AI94" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.35">
@@ -11414,7 +11384,7 @@
         <v>36</v>
       </c>
       <c r="B95">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="C95" t="s">
         <v>165</v>
@@ -11429,16 +11399,16 @@
         <v>40</v>
       </c>
       <c r="H95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I95">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="J95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L95">
         <v>253</v>
@@ -11450,16 +11420,16 @@
         <v>42</v>
       </c>
       <c r="O95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="P95">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Q95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="R95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="S95">
         <v>253</v>
@@ -11471,16 +11441,16 @@
         <v>42</v>
       </c>
       <c r="V95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="W95">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="X95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Y95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Z95">
         <v>253</v>
@@ -11492,25 +11462,22 @@
         <v>42</v>
       </c>
       <c r="AC95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AD95">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AE95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AF95">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AG95">
         <v>253</v>
       </c>
       <c r="AH95" t="s">
         <v>43</v>
-      </c>
-      <c r="AI95" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.35">
@@ -11518,7 +11485,7 @@
         <v>36</v>
       </c>
       <c r="B96">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="C96" t="s">
         <v>166</v>
@@ -11533,16 +11500,16 @@
         <v>40</v>
       </c>
       <c r="H96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I96">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L96">
         <v>253</v>
@@ -11554,16 +11521,16 @@
         <v>42</v>
       </c>
       <c r="O96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P96">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S96">
         <v>253</v>
@@ -11575,16 +11542,16 @@
         <v>42</v>
       </c>
       <c r="V96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W96">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z96">
         <v>253</v>
@@ -11596,16 +11563,16 @@
         <v>42</v>
       </c>
       <c r="AC96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD96">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AF96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG96">
         <v>253</v>
@@ -11613,16 +11580,13 @@
       <c r="AH96" t="s">
         <v>43</v>
       </c>
-      <c r="AI96" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>36</v>
       </c>
       <c r="B97">
-        <v>3350</v>
+        <v>2657</v>
       </c>
       <c r="C97" t="s">
         <v>167</v>
@@ -11717,12 +11681,8 @@
       <c r="AH97" t="s">
         <v>43</v>
       </c>
-      <c r="AI97" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ97"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>